--- a/time_of_sort.xlsx
+++ b/time_of_sort.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86187\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\time_of_AE1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7470097B-F5EE-4D5D-8CCA-862D3E955AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C1771A-4C18-4CAA-8589-3202F0F72618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8136" yWindow="1776" windowWidth="12888" windowHeight="10344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1000" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>3wayquicksort</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,18 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>904300(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>951400(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>702200(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>305800(x)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,22 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7895300(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7691500(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>698450(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7094500(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4631400(x)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,14 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>239015800(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>230553700(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>26351146900(x)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,22 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>147282400(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>130989100(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>151892100(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>134837500(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30679700(x)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,22 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>185690800(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>197280300(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>186245800(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>184141300(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>31826800(x)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,6 +189,38 @@
   </si>
   <si>
     <t>76088000(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27656700(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25792500(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28048800(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>267900(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>274800(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36040600(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35093000(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36570500(x)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +255,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -312,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,6 +295,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -611,7 +583,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L2:L7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -658,197 +630,197 @@
     </row>
     <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>177200</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="3">
-        <v>180600</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>180800</v>
+      </c>
+      <c r="D2" s="3">
+        <v>148300</v>
       </c>
       <c r="E2" s="3">
-        <v>186600</v>
+        <v>169900</v>
       </c>
       <c r="F2" s="3">
-        <v>204400</v>
+        <v>172100</v>
       </c>
       <c r="G2" s="3">
-        <v>167300</v>
-      </c>
-      <c r="H2" s="3">
-        <v>171200</v>
+        <v>160800</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="I2" s="3">
-        <v>199200</v>
+        <v>156000</v>
       </c>
       <c r="J2" s="3">
-        <v>168800</v>
+        <v>160800</v>
       </c>
       <c r="K2" s="3">
-        <v>197100</v>
+        <v>169900</v>
       </c>
       <c r="L2" s="6">
-        <f>SUM(B2:C2,E2:K2)/9</f>
-        <v>183600</v>
+        <f>SUM(C2:G2,I2:K2)/8</f>
+        <v>164825</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>177200</v>
       </c>
       <c r="C3" s="3">
-        <v>224100</v>
-      </c>
-      <c r="D3" s="3">
-        <v>237500</v>
+        <v>180600</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="3">
-        <v>256400</v>
+        <v>186600</v>
       </c>
       <c r="F3" s="3">
-        <v>232000</v>
+        <v>194400</v>
       </c>
       <c r="G3" s="3">
-        <v>240700</v>
+        <v>167300</v>
       </c>
       <c r="H3" s="3">
-        <v>256500</v>
+        <v>171200</v>
       </c>
       <c r="I3" s="3">
-        <v>257700</v>
+        <v>199200</v>
       </c>
       <c r="J3" s="3">
-        <v>273300</v>
+        <v>168800</v>
       </c>
       <c r="K3" s="3">
-        <v>267000</v>
+        <v>197100</v>
       </c>
       <c r="L3" s="6">
-        <f>SUM(C3:K3)/9</f>
-        <v>249466.66666666666</v>
+        <f>SUM(B3:C3,E3:K3)/9</f>
+        <v>182488.88888888888</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>380500</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="3">
-        <v>343900</v>
+        <v>224100</v>
       </c>
       <c r="D4" s="3">
-        <v>330400</v>
+        <v>237500</v>
       </c>
       <c r="E4" s="3">
-        <v>321200</v>
+        <v>256400</v>
       </c>
       <c r="F4" s="3">
-        <v>356600</v>
+        <v>232000</v>
       </c>
       <c r="G4" s="3">
-        <v>327900</v>
+        <v>240700</v>
       </c>
       <c r="H4" s="3">
-        <v>341800</v>
+        <v>256500</v>
       </c>
       <c r="I4" s="3">
-        <v>382000</v>
+        <v>257700</v>
       </c>
       <c r="J4" s="3">
-        <v>330300</v>
+        <v>273300</v>
       </c>
       <c r="K4" s="3">
-        <v>330900</v>
-      </c>
-      <c r="L4" s="3">
-        <f>SUM(B4:K4)/10</f>
-        <v>344550</v>
+        <v>267000</v>
+      </c>
+      <c r="L4" s="6">
+        <f>SUM(C4:K4)/9</f>
+        <v>249466.66666666666</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>386700</v>
+        <v>380500</v>
       </c>
       <c r="C5" s="3">
-        <v>357300</v>
+        <v>343900</v>
       </c>
       <c r="D5" s="3">
-        <v>367200</v>
+        <v>330400</v>
       </c>
       <c r="E5" s="3">
-        <v>347500</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>7</v>
+        <v>321200</v>
+      </c>
+      <c r="F5" s="3">
+        <v>356600</v>
       </c>
       <c r="G5" s="3">
-        <v>378200</v>
+        <v>327900</v>
       </c>
       <c r="H5" s="3">
-        <v>364200</v>
+        <v>341800</v>
       </c>
       <c r="I5" s="3">
-        <v>364400</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>8</v>
+        <v>382000</v>
+      </c>
+      <c r="J5" s="3">
+        <v>330300</v>
       </c>
       <c r="K5" s="3">
-        <v>353400</v>
-      </c>
-      <c r="L5" s="6">
-        <f>SUM(B5:E5,G5:I5,K5)/8</f>
-        <v>364862.5</v>
+        <v>330900</v>
+      </c>
+      <c r="L5" s="3">
+        <f>SUM(B5:K5)/10</f>
+        <v>344550</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>386700</v>
+      </c>
+      <c r="C6" s="3">
+        <v>357300</v>
       </c>
       <c r="D6" s="3">
-        <v>614900</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3">
-        <v>508300</v>
+        <v>367200</v>
+      </c>
+      <c r="E6" s="3">
+        <v>347500</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="G6" s="3">
-        <v>533200</v>
+        <v>378200</v>
       </c>
       <c r="H6" s="3">
-        <v>606200</v>
+        <v>364200</v>
       </c>
       <c r="I6" s="3">
-        <v>545900</v>
-      </c>
-      <c r="J6" s="3">
-        <v>611800</v>
+        <v>364400</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="K6" s="3">
-        <v>564900</v>
+        <v>353400</v>
       </c>
       <c r="L6" s="6">
-        <f>SUM(D6,F6:K6)/7</f>
-        <v>569314.28571428568</v>
+        <f>SUM(B6:E6,G6:I6,K6)/8</f>
+        <v>364862.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
@@ -906,7 +878,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -959,19 +931,19 @@
         <v>2654500</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3">
         <v>2259300</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3">
         <v>2760700</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3">
         <v>2635800</v>
@@ -980,7 +952,7 @@
         <v>2748300</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K2" s="3">
         <v>2652200</v>
@@ -1031,119 +1003,119 @@
     </row>
     <row r="4" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2991500</v>
       </c>
       <c r="C4" s="3">
-        <v>4181600</v>
+        <v>3370300</v>
       </c>
       <c r="D4" s="3">
-        <v>3012700</v>
+        <v>3170700</v>
       </c>
       <c r="E4" s="3">
-        <v>3251100</v>
+        <v>3082800</v>
       </c>
       <c r="F4" s="3">
-        <v>3297900</v>
+        <v>2979800</v>
       </c>
       <c r="G4" s="3">
-        <v>3812200</v>
+        <v>2839100</v>
       </c>
       <c r="H4" s="3">
-        <v>3005000</v>
+        <v>2979200</v>
       </c>
       <c r="I4" s="3">
-        <v>3163500</v>
+        <v>2625200</v>
       </c>
       <c r="J4" s="3">
-        <v>3823400</v>
+        <v>2966000</v>
       </c>
       <c r="K4" s="3">
-        <v>3003000</v>
+        <v>2509000</v>
       </c>
       <c r="L4" s="6">
-        <f>SUM(C4:K4)/9</f>
-        <v>3394488.888888889</v>
+        <f>SUM(B4:K4)/10</f>
+        <v>2951360</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3">
-        <v>3334500</v>
+        <v>4181600</v>
       </c>
       <c r="D5" s="3">
-        <v>4387700</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>3012700</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3251100</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3297900</v>
       </c>
       <c r="G5" s="3">
-        <v>4637100</v>
+        <v>3812200</v>
       </c>
       <c r="H5" s="3">
-        <v>4241200</v>
+        <v>3005000</v>
       </c>
       <c r="I5" s="3">
-        <v>3810500</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>24</v>
+        <v>3163500</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3823400</v>
       </c>
       <c r="K5" s="3">
-        <v>3714200</v>
+        <v>3003000</v>
       </c>
       <c r="L5" s="6">
-        <f>SUM(C5,D5,G5:I5,K5)/6</f>
-        <v>4020866.6666666665</v>
+        <f>SUM(C5:K5)/9</f>
+        <v>3394488.888888889</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3334500</v>
       </c>
       <c r="D6" s="3">
-        <v>5679200</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5077600</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5399600</v>
+        <v>4387700</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G6" s="3">
-        <v>6435600</v>
+        <v>4637100</v>
       </c>
       <c r="H6" s="3">
-        <v>5263600</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="3">
-        <v>6344600</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>18</v>
+        <v>4241200</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3810500</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3714200</v>
       </c>
       <c r="L6" s="6">
-        <f>SUM(D6:H6,J6)/6</f>
-        <v>5700033.333333333</v>
+        <f>SUM(C6,D6,G6:I6,K6)/6</f>
+        <v>4020866.6666666665</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
@@ -1199,7 +1171,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L2:L7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1249,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3">
         <v>14784700</v>
@@ -1273,7 +1245,7 @@
         <v>15419400</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K2" s="3">
         <v>14088600</v>
@@ -1285,158 +1257,158 @@
     </row>
     <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3">
-        <v>37963100</v>
+        <v>22012400</v>
       </c>
       <c r="D3" s="3">
-        <v>40673100</v>
+        <v>22058000</v>
       </c>
       <c r="E3" s="3">
-        <v>39761600</v>
-      </c>
-      <c r="F3" s="3">
-        <v>40571700</v>
+        <v>22865100</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="G3" s="3">
-        <v>41721400</v>
+        <v>20737400</v>
       </c>
       <c r="H3" s="3">
-        <v>40450200</v>
+        <v>23472600</v>
       </c>
       <c r="I3" s="3">
-        <v>40056000</v>
-      </c>
-      <c r="J3" s="3">
-        <v>39481300</v>
+        <v>21475200</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="K3" s="3">
-        <v>40278900</v>
+        <v>20673200</v>
       </c>
       <c r="L3" s="6">
-        <f>SUM(C3:K3)/9</f>
-        <v>40106366.666666664</v>
+        <f>SUM(C3:E3,G3:I3,K3)/7</f>
+        <v>21899128.571428571</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>105772000</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="3">
-        <v>102363600</v>
+        <v>37963100</v>
       </c>
       <c r="D4" s="3">
-        <v>102693000</v>
+        <v>40673100</v>
       </c>
       <c r="E4" s="3">
-        <v>102902400</v>
+        <v>39761600</v>
       </c>
       <c r="F4" s="3">
-        <v>103401200</v>
+        <v>40571700</v>
       </c>
       <c r="G4" s="3">
-        <v>118203900</v>
+        <v>41721400</v>
       </c>
       <c r="H4" s="3">
-        <v>106422700</v>
+        <v>40450200</v>
       </c>
       <c r="I4" s="3">
-        <v>108304300</v>
+        <v>40056000</v>
       </c>
       <c r="J4" s="3">
-        <v>100923500</v>
+        <v>39481300</v>
       </c>
       <c r="K4" s="3">
-        <v>104567600</v>
-      </c>
-      <c r="L4" s="3">
-        <f>SUM(B4:K4)/10</f>
-        <v>105555420</v>
+        <v>40278900</v>
+      </c>
+      <c r="L4" s="6">
+        <f>SUM(C4:K4)/9</f>
+        <v>40106366.666666664</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>110436000</v>
+        <v>105772000</v>
       </c>
       <c r="C5" s="3">
-        <v>112784200</v>
+        <v>102363600</v>
       </c>
       <c r="D5" s="3">
-        <v>110352100</v>
+        <v>102693000</v>
       </c>
       <c r="E5" s="3">
-        <v>118379900</v>
+        <v>102902400</v>
       </c>
       <c r="F5" s="3">
-        <v>105881800</v>
+        <v>103401200</v>
       </c>
       <c r="G5" s="3">
-        <v>116921300</v>
+        <v>118203900</v>
       </c>
       <c r="H5" s="3">
-        <v>109902400</v>
+        <v>106422700</v>
       </c>
       <c r="I5" s="3">
-        <v>114402400</v>
+        <v>108304300</v>
       </c>
       <c r="J5" s="3">
-        <v>106503400</v>
+        <v>100923500</v>
       </c>
       <c r="K5" s="3">
-        <v>107899700</v>
+        <v>104567600</v>
       </c>
       <c r="L5" s="3">
         <f>SUM(B5:K5)/10</f>
-        <v>111346320</v>
+        <v>105555420</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>204679100</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>110436000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>112784200</v>
       </c>
       <c r="D6" s="3">
-        <v>200440200</v>
+        <v>110352100</v>
       </c>
       <c r="E6" s="3">
-        <v>198946700</v>
+        <v>118379900</v>
       </c>
       <c r="F6" s="3">
-        <v>188509600</v>
+        <v>105881800</v>
       </c>
       <c r="G6" s="3">
-        <v>178028100</v>
+        <v>116921300</v>
       </c>
       <c r="H6" s="3">
-        <v>191438200</v>
+        <v>109902400</v>
       </c>
       <c r="I6" s="3">
-        <v>200162100</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>28</v>
+        <v>114402400</v>
+      </c>
+      <c r="J6" s="3">
+        <v>106503400</v>
       </c>
       <c r="K6" s="3">
-        <v>199329900</v>
-      </c>
-      <c r="L6" s="6">
-        <f>SUM(B6,D6:I6,K6)/8</f>
-        <v>195191737.5</v>
+        <v>107899700</v>
+      </c>
+      <c r="L6" s="3">
+        <f>SUM(B6:K6)/10</f>
+        <v>111346320</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
@@ -1492,7 +1464,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L2:L7"/>
+      <selection activeCell="L4" sqref="L4:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1590,13 +1562,13 @@
         <v>27998100</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3">
         <v>27804700</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H3" s="3">
         <v>27416600</v>
@@ -1632,13 +1604,13 @@
         <v>28776000</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3">
         <v>28468500</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I4" s="3">
         <v>27441100</v>
@@ -1656,80 +1628,80 @@
     </row>
     <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>47969300</v>
-      </c>
-      <c r="C5" s="3">
-        <v>45220200</v>
-      </c>
-      <c r="D5" s="3">
-        <v>46856000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>47320600</v>
-      </c>
-      <c r="F5" s="3">
-        <v>46528400</v>
-      </c>
-      <c r="G5" s="3">
-        <v>46864000</v>
-      </c>
-      <c r="H5" s="3">
-        <v>48730800</v>
+        <v>31055400</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="7">
+        <v>29077300</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="7">
+        <v>29122000</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="7">
+        <v>31122000</v>
       </c>
       <c r="I5" s="3">
-        <v>48348500</v>
+        <v>28701500</v>
       </c>
       <c r="J5" s="3">
-        <v>49093600</v>
+        <v>29337200</v>
       </c>
       <c r="K5" s="3">
-        <v>46459800</v>
-      </c>
-      <c r="L5" s="3">
-        <f>SUM(B5:K5)/10</f>
-        <v>47339120</v>
+        <v>27679600</v>
+      </c>
+      <c r="L5" s="6">
+        <f>SUM(B5,D5,F5,H5:K5)/7</f>
+        <v>29442142.857142858</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>117877200</v>
+        <v>47969300</v>
       </c>
       <c r="C6" s="3">
-        <v>114860100</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>33</v>
+        <v>45220200</v>
+      </c>
+      <c r="D6" s="3">
+        <v>46856000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>47320600</v>
+      </c>
+      <c r="F6" s="3">
+        <v>46528400</v>
       </c>
       <c r="G6" s="3">
-        <v>120846800</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>32</v>
+        <v>46864000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>48730800</v>
       </c>
       <c r="I6" s="3">
-        <v>106659700</v>
+        <v>48348500</v>
       </c>
       <c r="J6" s="3">
-        <v>110452500</v>
+        <v>49093600</v>
       </c>
       <c r="K6" s="3">
-        <v>107236100</v>
+        <v>46459800</v>
       </c>
       <c r="L6" s="3">
-        <f>SUM(B6,C6,G6,I6,J6,K6)/6</f>
-        <v>112988733.33333333</v>
+        <f>SUM(B6:K6)/10</f>
+        <v>47339120</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
@@ -1740,7 +1712,7 @@
         <v>18964398700</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3">
         <v>18876776300</v>
@@ -1749,7 +1721,7 @@
         <v>18777401000</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G7" s="3">
         <v>18406865200</v>
@@ -1785,7 +1757,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1835,10 +1807,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3">
         <v>38171300</v>
@@ -1856,13 +1828,13 @@
         <v>39591500</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="J2" s="3">
         <v>37676100</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="L2" s="6">
         <f>SUM(J2,H2,G2,F2,E2,D2)/6</f>
@@ -1874,7 +1846,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3">
         <v>43204400</v>
@@ -1949,80 +1921,80 @@
     </row>
     <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>69692000</v>
+        <v>48638100</v>
       </c>
       <c r="C5" s="3">
-        <v>68406200</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>53</v>
+        <v>48856500</v>
+      </c>
+      <c r="D5" s="3">
+        <v>48631600</v>
       </c>
       <c r="E5" s="3">
-        <v>71620800</v>
+        <v>50003300</v>
       </c>
       <c r="F5" s="3">
-        <v>69566300</v>
+        <v>48302300</v>
       </c>
       <c r="G5" s="3">
-        <v>68545400</v>
+        <v>48839200</v>
       </c>
       <c r="H5" s="3">
-        <v>71037800</v>
+        <v>48338800</v>
       </c>
       <c r="I5" s="3">
-        <v>70109500</v>
+        <v>51361700</v>
       </c>
       <c r="J5" s="3">
-        <v>69647600</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="3">
-        <f>SUM(B5,C5,E5:J5)/8</f>
-        <v>69828200</v>
+        <v>46743400</v>
+      </c>
+      <c r="K5" s="3">
+        <v>49289200</v>
+      </c>
+      <c r="L5" s="6">
+        <f>SUM(B5:K5)/10</f>
+        <v>48900410</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>69692000</v>
       </c>
       <c r="C6" s="3">
-        <v>171177300</v>
+        <v>68406200</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3">
-        <v>170769200</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>71620800</v>
+      </c>
+      <c r="F6" s="3">
+        <v>69566300</v>
       </c>
       <c r="G6" s="3">
-        <v>172168000</v>
+        <v>68545400</v>
       </c>
       <c r="H6" s="3">
-        <v>170289800</v>
+        <v>71037800</v>
       </c>
       <c r="I6" s="3">
-        <v>175912600</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="3">
-        <v>176224100</v>
-      </c>
-      <c r="L6" s="6">
-        <f>SUM(C6,E6,G6,H6,I6,K6)/6</f>
-        <v>172756833.33333334</v>
+        <v>70109500</v>
+      </c>
+      <c r="J6" s="3">
+        <v>69647600</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="3">
+        <f>SUM(B6,C6,E6:J6)/8</f>
+        <v>69828200</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
@@ -2036,7 +2008,7 @@
         <v>81340288500</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3">
         <v>83014023200</v>
